--- a/word_automation/cég1/7-cég1-2023/Körlevél_HMKE.xlsx
+++ b/word_automation/cég1/7-cég1-2023/Körlevél_HMKE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suncollector\word_automation\cég2\7-cég2-2023\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\suncollector\word_automation\cég1\7-cég1-2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{826CE3C7-F808-4138-8043-A3C4291E8E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6660" yWindow="1815" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="3345" yWindow="2955" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="magánszemély" sheetId="1" r:id="rId1"/>
@@ -114,13 +115,13 @@
     <t>Magánszemély</t>
   </si>
   <si>
-    <t>teszt magán</t>
+    <t>teszt magán Robinak mutatom</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -245,7 +246,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -522,18 +523,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Munka1"/>
   <dimension ref="A1:AA113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="24.7109375" customWidth="1"/>
@@ -859,7 +860,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E48">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E4 E6:E48" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -869,7 +870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Munka2"/>
   <dimension ref="A1:A29"/>
   <sheetViews>
@@ -913,7 +914,7 @@
     <row r="29" ht="20.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E4" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
